--- a/ETF and ETN.xlsx
+++ b/ETF and ETN.xlsx
@@ -1,15 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20383"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Songyounggul\PycharmProjects\quantinvest_stock\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40ECFE2C-4136-432E-BB78-90C51D06B9AB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="240" yWindow="17" windowWidth="16097" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="w" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">w!$A$1:$D$567</definedName>
+  </definedNames>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -1738,12 +1747,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -1751,8 +1760,15 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -1798,15 +1814,23 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1848,7 +1872,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1880,9 +1904,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1914,6 +1956,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2089,14 +2149,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D567"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="17.600000000000001" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="4.35546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.7109375" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2107,7 +2175,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -2121,7 +2189,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -2135,7 +2203,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -2149,7 +2217,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -2163,7 +2231,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -2177,7 +2245,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -2191,7 +2259,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -2205,7 +2273,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -2219,7 +2287,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -2233,7 +2301,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:4">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -2247,7 +2315,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -2261,7 +2329,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -2275,7 +2343,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:4">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -2289,7 +2357,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:4">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -2303,7 +2371,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:4">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -2317,7 +2385,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -2331,7 +2399,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:4">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -2345,7 +2413,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -2359,7 +2427,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -2373,7 +2441,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="21" spans="1:4">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -2387,7 +2455,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:4">
+    <row r="22" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -2401,7 +2469,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -2415,7 +2483,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -2429,7 +2497,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -2443,7 +2511,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="26" spans="1:4">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -2457,7 +2525,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:4">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -2471,7 +2539,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="28" spans="1:4">
+    <row r="28" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -2485,7 +2553,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="29" spans="1:4">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -2499,7 +2567,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="30" spans="1:4">
+    <row r="30" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -2513,7 +2581,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:4">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -2527,7 +2595,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="32" spans="1:4">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -2541,7 +2609,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -2555,7 +2623,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="34" spans="1:4">
+    <row r="34" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -2569,7 +2637,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="1:4">
+    <row r="35" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -2583,7 +2651,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -2597,7 +2665,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="1:4">
+    <row r="37" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -2611,7 +2679,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -2625,7 +2693,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -2639,7 +2707,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -2653,7 +2721,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -2667,7 +2735,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -2681,7 +2749,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -2695,7 +2763,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -2709,7 +2777,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -2723,7 +2791,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -2737,7 +2805,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -2751,7 +2819,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -2765,7 +2833,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -2779,7 +2847,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
+    <row r="50" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -2793,7 +2861,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="51" spans="1:4">
+    <row r="51" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -2807,7 +2875,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -2821,7 +2889,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -2835,7 +2903,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -2849,7 +2917,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -2863,7 +2931,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -2877,7 +2945,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -2891,7 +2959,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -2905,7 +2973,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -2919,7 +2987,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -2933,7 +3001,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -2947,7 +3015,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -2961,7 +3029,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -2975,7 +3043,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -2989,7 +3057,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="65" spans="1:4">
+    <row r="65" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -3003,7 +3071,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="66" spans="1:4">
+    <row r="66" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -3017,7 +3085,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
+    <row r="67" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -3031,7 +3099,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
+    <row r="68" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -3045,7 +3113,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
+    <row r="69" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -3059,7 +3127,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
+    <row r="70" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -3073,7 +3141,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
+    <row r="71" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -3087,7 +3155,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="72" spans="1:4">
+    <row r="72" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -3101,7 +3169,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="73" spans="1:4">
+    <row r="73" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -3115,7 +3183,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="74" spans="1:4">
+    <row r="74" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -3129,7 +3197,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="75" spans="1:4">
+    <row r="75" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -3143,7 +3211,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="76" spans="1:4">
+    <row r="76" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -3157,7 +3225,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="77" spans="1:4">
+    <row r="77" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -3171,7 +3239,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="78" spans="1:4">
+    <row r="78" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -3185,7 +3253,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="79" spans="1:4">
+    <row r="79" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -3199,7 +3267,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="80" spans="1:4">
+    <row r="80" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -3213,7 +3281,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -3227,7 +3295,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -3241,7 +3309,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -3255,7 +3323,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
+    <row r="84" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -3269,7 +3337,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
+    <row r="85" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -3283,7 +3351,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
+    <row r="86" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -3297,7 +3365,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -3311,7 +3379,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -3325,7 +3393,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -3339,7 +3407,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -3353,7 +3421,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -3367,7 +3435,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="92" spans="1:4">
+    <row r="92" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -3381,7 +3449,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="93" spans="1:4">
+    <row r="93" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -3395,7 +3463,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="94" spans="1:4">
+    <row r="94" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -3409,7 +3477,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
+    <row r="95" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -3423,7 +3491,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
+    <row r="96" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -3437,7 +3505,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="97" spans="1:4">
+    <row r="97" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -3451,7 +3519,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="98" spans="1:4">
+    <row r="98" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -3465,7 +3533,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="99" spans="1:4">
+    <row r="99" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -3479,7 +3547,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="100" spans="1:4">
+    <row r="100" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -3493,7 +3561,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="101" spans="1:4">
+    <row r="101" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -3507,7 +3575,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="102" spans="1:4">
+    <row r="102" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -3521,7 +3589,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="103" spans="1:4">
+    <row r="103" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -3535,7 +3603,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="104" spans="1:4">
+    <row r="104" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -3549,7 +3617,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="105" spans="1:4">
+    <row r="105" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -3563,7 +3631,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="106" spans="1:4">
+    <row r="106" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -3577,7 +3645,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="107" spans="1:4">
+    <row r="107" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -3591,7 +3659,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="108" spans="1:4">
+    <row r="108" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -3605,7 +3673,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="109" spans="1:4">
+    <row r="109" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -3619,7 +3687,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
+    <row r="110" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -3633,7 +3701,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
+    <row r="111" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -3647,7 +3715,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="112" spans="1:4">
+    <row r="112" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A112" s="1">
         <v>110</v>
       </c>
@@ -3661,7 +3729,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A113" s="1">
         <v>111</v>
       </c>
@@ -3675,7 +3743,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="114" spans="1:4">
+    <row r="114" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A114" s="1">
         <v>112</v>
       </c>
@@ -3689,7 +3757,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="115" spans="1:4">
+    <row r="115" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A115" s="1">
         <v>113</v>
       </c>
@@ -3703,7 +3771,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="116" spans="1:4">
+    <row r="116" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A116" s="1">
         <v>114</v>
       </c>
@@ -3717,7 +3785,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="117" spans="1:4">
+    <row r="117" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A117" s="1">
         <v>115</v>
       </c>
@@ -3731,7 +3799,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="118" spans="1:4">
+    <row r="118" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A118" s="1">
         <v>116</v>
       </c>
@@ -3745,7 +3813,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="119" spans="1:4">
+    <row r="119" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A119" s="1">
         <v>117</v>
       </c>
@@ -3759,7 +3827,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="120" spans="1:4">
+    <row r="120" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A120" s="1">
         <v>118</v>
       </c>
@@ -3773,7 +3841,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="121" spans="1:4">
+    <row r="121" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A121" s="1">
         <v>119</v>
       </c>
@@ -3787,7 +3855,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="122" spans="1:4">
+    <row r="122" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A122" s="1">
         <v>120</v>
       </c>
@@ -3801,7 +3869,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="123" spans="1:4">
+    <row r="123" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A123" s="1">
         <v>121</v>
       </c>
@@ -3815,7 +3883,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="124" spans="1:4">
+    <row r="124" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A124" s="1">
         <v>122</v>
       </c>
@@ -3829,7 +3897,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="125" spans="1:4">
+    <row r="125" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A125" s="1">
         <v>123</v>
       </c>
@@ -3843,7 +3911,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="126" spans="1:4">
+    <row r="126" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A126" s="1">
         <v>124</v>
       </c>
@@ -3857,7 +3925,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="127" spans="1:4">
+    <row r="127" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A127" s="1">
         <v>125</v>
       </c>
@@ -3871,7 +3939,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="128" spans="1:4">
+    <row r="128" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A128" s="1">
         <v>126</v>
       </c>
@@ -3885,7 +3953,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="129" spans="1:4">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A129" s="1">
         <v>127</v>
       </c>
@@ -3899,7 +3967,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="130" spans="1:4">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A130" s="1">
         <v>128</v>
       </c>
@@ -3913,7 +3981,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="131" spans="1:4">
+    <row r="131" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A131" s="1">
         <v>129</v>
       </c>
@@ -3927,7 +3995,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="132" spans="1:4">
+    <row r="132" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A132" s="1">
         <v>130</v>
       </c>
@@ -3941,7 +4009,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="133" spans="1:4">
+    <row r="133" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A133" s="1">
         <v>131</v>
       </c>
@@ -3955,7 +4023,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="134" spans="1:4">
+    <row r="134" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A134" s="1">
         <v>132</v>
       </c>
@@ -3969,7 +4037,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="135" spans="1:4">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A135" s="1">
         <v>133</v>
       </c>
@@ -3983,7 +4051,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="136" spans="1:4">
+    <row r="136" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A136" s="1">
         <v>134</v>
       </c>
@@ -3997,7 +4065,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="137" spans="1:4">
+    <row r="137" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A137" s="1">
         <v>135</v>
       </c>
@@ -4011,7 +4079,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="138" spans="1:4">
+    <row r="138" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A138" s="1">
         <v>136</v>
       </c>
@@ -4025,7 +4093,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="139" spans="1:4">
+    <row r="139" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A139" s="1">
         <v>137</v>
       </c>
@@ -4039,7 +4107,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="140" spans="1:4">
+    <row r="140" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A140" s="1">
         <v>138</v>
       </c>
@@ -4053,7 +4121,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="141" spans="1:4">
+    <row r="141" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A141" s="1">
         <v>139</v>
       </c>
@@ -4067,7 +4135,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="142" spans="1:4">
+    <row r="142" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A142" s="1">
         <v>140</v>
       </c>
@@ -4081,7 +4149,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="143" spans="1:4">
+    <row r="143" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A143" s="1">
         <v>141</v>
       </c>
@@ -4095,7 +4163,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="144" spans="1:4">
+    <row r="144" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A144" s="1">
         <v>142</v>
       </c>
@@ -4109,7 +4177,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="145" spans="1:4">
+    <row r="145" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A145" s="1">
         <v>143</v>
       </c>
@@ -4123,7 +4191,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="146" spans="1:4">
+    <row r="146" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A146" s="1">
         <v>144</v>
       </c>
@@ -4137,7 +4205,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="147" spans="1:4">
+    <row r="147" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A147" s="1">
         <v>145</v>
       </c>
@@ -4151,7 +4219,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="148" spans="1:4">
+    <row r="148" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A148" s="1">
         <v>146</v>
       </c>
@@ -4165,7 +4233,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="149" spans="1:4">
+    <row r="149" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A149" s="1">
         <v>147</v>
       </c>
@@ -4179,7 +4247,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="150" spans="1:4">
+    <row r="150" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A150" s="1">
         <v>148</v>
       </c>
@@ -4193,7 +4261,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="151" spans="1:4">
+    <row r="151" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A151" s="1">
         <v>149</v>
       </c>
@@ -4207,7 +4275,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="152" spans="1:4">
+    <row r="152" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A152" s="1">
         <v>150</v>
       </c>
@@ -4221,7 +4289,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="153" spans="1:4">
+    <row r="153" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A153" s="1">
         <v>151</v>
       </c>
@@ -4235,7 +4303,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="154" spans="1:4">
+    <row r="154" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A154" s="1">
         <v>152</v>
       </c>
@@ -4249,7 +4317,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="155" spans="1:4">
+    <row r="155" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A155" s="1">
         <v>153</v>
       </c>
@@ -4263,7 +4331,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="156" spans="1:4">
+    <row r="156" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A156" s="1">
         <v>154</v>
       </c>
@@ -4277,7 +4345,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="157" spans="1:4">
+    <row r="157" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A157" s="1">
         <v>155</v>
       </c>
@@ -4291,7 +4359,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="158" spans="1:4">
+    <row r="158" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A158" s="1">
         <v>156</v>
       </c>
@@ -4305,7 +4373,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="159" spans="1:4">
+    <row r="159" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A159" s="1">
         <v>157</v>
       </c>
@@ -4319,7 +4387,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="160" spans="1:4">
+    <row r="160" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A160" s="1">
         <v>158</v>
       </c>
@@ -4333,7 +4401,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="161" spans="1:4">
+    <row r="161" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A161" s="1">
         <v>159</v>
       </c>
@@ -4347,7 +4415,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="162" spans="1:4">
+    <row r="162" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A162" s="1">
         <v>160</v>
       </c>
@@ -4361,7 +4429,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="163" spans="1:4">
+    <row r="163" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A163" s="1">
         <v>161</v>
       </c>
@@ -4375,7 +4443,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="164" spans="1:4">
+    <row r="164" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A164" s="1">
         <v>162</v>
       </c>
@@ -4389,7 +4457,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="165" spans="1:4">
+    <row r="165" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A165" s="1">
         <v>163</v>
       </c>
@@ -4403,7 +4471,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="166" spans="1:4">
+    <row r="166" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A166" s="1">
         <v>164</v>
       </c>
@@ -4417,7 +4485,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="167" spans="1:4">
+    <row r="167" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A167" s="1">
         <v>165</v>
       </c>
@@ -4431,7 +4499,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="168" spans="1:4">
+    <row r="168" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A168" s="1">
         <v>166</v>
       </c>
@@ -4445,7 +4513,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="169" spans="1:4">
+    <row r="169" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A169" s="1">
         <v>167</v>
       </c>
@@ -4459,7 +4527,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="170" spans="1:4">
+    <row r="170" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A170" s="1">
         <v>168</v>
       </c>
@@ -4473,7 +4541,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="171" spans="1:4">
+    <row r="171" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A171" s="1">
         <v>169</v>
       </c>
@@ -4487,7 +4555,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="172" spans="1:4">
+    <row r="172" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A172" s="1">
         <v>170</v>
       </c>
@@ -4501,7 +4569,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="173" spans="1:4">
+    <row r="173" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A173" s="1">
         <v>171</v>
       </c>
@@ -4515,7 +4583,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="174" spans="1:4">
+    <row r="174" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A174" s="1">
         <v>172</v>
       </c>
@@ -4529,7 +4597,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="175" spans="1:4">
+    <row r="175" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A175" s="1">
         <v>173</v>
       </c>
@@ -4543,7 +4611,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="176" spans="1:4">
+    <row r="176" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A176" s="1">
         <v>174</v>
       </c>
@@ -4557,7 +4625,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="177" spans="1:4">
+    <row r="177" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A177" s="1">
         <v>175</v>
       </c>
@@ -4571,7 +4639,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="178" spans="1:4">
+    <row r="178" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A178" s="1">
         <v>176</v>
       </c>
@@ -4585,7 +4653,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="179" spans="1:4">
+    <row r="179" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A179" s="1">
         <v>177</v>
       </c>
@@ -4599,7 +4667,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="180" spans="1:4">
+    <row r="180" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A180" s="1">
         <v>178</v>
       </c>
@@ -4613,7 +4681,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="181" spans="1:4">
+    <row r="181" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A181" s="1">
         <v>179</v>
       </c>
@@ -4627,7 +4695,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="182" spans="1:4">
+    <row r="182" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A182" s="1">
         <v>180</v>
       </c>
@@ -4641,7 +4709,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="183" spans="1:4">
+    <row r="183" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A183" s="1">
         <v>181</v>
       </c>
@@ -4655,7 +4723,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="184" spans="1:4">
+    <row r="184" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A184" s="1">
         <v>182</v>
       </c>
@@ -4669,7 +4737,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="185" spans="1:4">
+    <row r="185" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A185" s="1">
         <v>183</v>
       </c>
@@ -4683,7 +4751,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="186" spans="1:4">
+    <row r="186" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A186" s="1">
         <v>184</v>
       </c>
@@ -4697,7 +4765,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="187" spans="1:4">
+    <row r="187" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A187" s="1">
         <v>185</v>
       </c>
@@ -4711,7 +4779,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="188" spans="1:4">
+    <row r="188" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A188" s="1">
         <v>186</v>
       </c>
@@ -4725,7 +4793,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="189" spans="1:4">
+    <row r="189" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A189" s="1">
         <v>187</v>
       </c>
@@ -4739,7 +4807,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="190" spans="1:4">
+    <row r="190" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A190" s="1">
         <v>188</v>
       </c>
@@ -4753,7 +4821,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="191" spans="1:4">
+    <row r="191" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A191" s="1">
         <v>189</v>
       </c>
@@ -4767,7 +4835,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="192" spans="1:4">
+    <row r="192" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A192" s="1">
         <v>190</v>
       </c>
@@ -4781,7 +4849,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="193" spans="1:4">
+    <row r="193" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A193" s="1">
         <v>191</v>
       </c>
@@ -4795,7 +4863,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="194" spans="1:4">
+    <row r="194" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A194" s="1">
         <v>192</v>
       </c>
@@ -4809,7 +4877,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="195" spans="1:4">
+    <row r="195" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A195" s="1">
         <v>193</v>
       </c>
@@ -4823,7 +4891,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="196" spans="1:4">
+    <row r="196" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A196" s="1">
         <v>194</v>
       </c>
@@ -4837,7 +4905,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="197" spans="1:4">
+    <row r="197" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A197" s="1">
         <v>195</v>
       </c>
@@ -4851,7 +4919,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="198" spans="1:4">
+    <row r="198" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A198" s="1">
         <v>196</v>
       </c>
@@ -4865,7 +4933,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="199" spans="1:4">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A199" s="1">
         <v>197</v>
       </c>
@@ -4879,7 +4947,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="200" spans="1:4">
+    <row r="200" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A200" s="1">
         <v>198</v>
       </c>
@@ -4893,7 +4961,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="201" spans="1:4">
+    <row r="201" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A201" s="1">
         <v>199</v>
       </c>
@@ -4907,7 +4975,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="202" spans="1:4">
+    <row r="202" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A202" s="1">
         <v>200</v>
       </c>
@@ -4921,7 +4989,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="203" spans="1:4">
+    <row r="203" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A203" s="1">
         <v>201</v>
       </c>
@@ -4935,7 +5003,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="204" spans="1:4">
+    <row r="204" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A204" s="1">
         <v>202</v>
       </c>
@@ -4949,7 +5017,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="205" spans="1:4">
+    <row r="205" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A205" s="1">
         <v>203</v>
       </c>
@@ -4963,7 +5031,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="206" spans="1:4">
+    <row r="206" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A206" s="1">
         <v>204</v>
       </c>
@@ -4977,7 +5045,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="207" spans="1:4">
+    <row r="207" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A207" s="1">
         <v>205</v>
       </c>
@@ -4991,7 +5059,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="208" spans="1:4">
+    <row r="208" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A208" s="1">
         <v>206</v>
       </c>
@@ -5005,7 +5073,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="209" spans="1:4">
+    <row r="209" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A209" s="1">
         <v>207</v>
       </c>
@@ -5019,7 +5087,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="210" spans="1:4">
+    <row r="210" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A210" s="1">
         <v>208</v>
       </c>
@@ -5033,7 +5101,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="211" spans="1:4">
+    <row r="211" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A211" s="1">
         <v>209</v>
       </c>
@@ -5047,7 +5115,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="212" spans="1:4">
+    <row r="212" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A212" s="1">
         <v>210</v>
       </c>
@@ -5061,7 +5129,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="213" spans="1:4">
+    <row r="213" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A213" s="1">
         <v>211</v>
       </c>
@@ -5075,7 +5143,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="214" spans="1:4">
+    <row r="214" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A214" s="1">
         <v>212</v>
       </c>
@@ -5089,7 +5157,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="215" spans="1:4">
+    <row r="215" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A215" s="1">
         <v>213</v>
       </c>
@@ -5103,7 +5171,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="216" spans="1:4">
+    <row r="216" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A216" s="1">
         <v>214</v>
       </c>
@@ -5117,7 +5185,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="217" spans="1:4">
+    <row r="217" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A217" s="1">
         <v>215</v>
       </c>
@@ -5131,7 +5199,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="218" spans="1:4">
+    <row r="218" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A218" s="1">
         <v>216</v>
       </c>
@@ -5145,7 +5213,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="219" spans="1:4">
+    <row r="219" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A219" s="1">
         <v>217</v>
       </c>
@@ -5159,7 +5227,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="220" spans="1:4">
+    <row r="220" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A220" s="1">
         <v>218</v>
       </c>
@@ -5173,7 +5241,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="221" spans="1:4">
+    <row r="221" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A221" s="1">
         <v>219</v>
       </c>
@@ -5187,7 +5255,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="222" spans="1:4">
+    <row r="222" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A222" s="1">
         <v>220</v>
       </c>
@@ -5201,7 +5269,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="223" spans="1:4">
+    <row r="223" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A223" s="1">
         <v>221</v>
       </c>
@@ -5215,7 +5283,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="224" spans="1:4">
+    <row r="224" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A224" s="1">
         <v>222</v>
       </c>
@@ -5229,7 +5297,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="225" spans="1:4">
+    <row r="225" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A225" s="1">
         <v>223</v>
       </c>
@@ -5243,7 +5311,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="226" spans="1:4">
+    <row r="226" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A226" s="1">
         <v>224</v>
       </c>
@@ -5257,7 +5325,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="227" spans="1:4">
+    <row r="227" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A227" s="1">
         <v>225</v>
       </c>
@@ -5271,7 +5339,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="228" spans="1:4">
+    <row r="228" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A228" s="1">
         <v>226</v>
       </c>
@@ -5285,7 +5353,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="229" spans="1:4">
+    <row r="229" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A229" s="1">
         <v>227</v>
       </c>
@@ -5299,7 +5367,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="230" spans="1:4">
+    <row r="230" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A230" s="1">
         <v>228</v>
       </c>
@@ -5313,7 +5381,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="231" spans="1:4">
+    <row r="231" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A231" s="1">
         <v>229</v>
       </c>
@@ -5327,7 +5395,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="232" spans="1:4">
+    <row r="232" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A232" s="1">
         <v>230</v>
       </c>
@@ -5341,7 +5409,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="233" spans="1:4">
+    <row r="233" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A233" s="1">
         <v>231</v>
       </c>
@@ -5355,7 +5423,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="234" spans="1:4">
+    <row r="234" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A234" s="1">
         <v>232</v>
       </c>
@@ -5369,7 +5437,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="235" spans="1:4">
+    <row r="235" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A235" s="1">
         <v>233</v>
       </c>
@@ -5383,7 +5451,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="236" spans="1:4">
+    <row r="236" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A236" s="1">
         <v>234</v>
       </c>
@@ -5397,7 +5465,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="237" spans="1:4">
+    <row r="237" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A237" s="1">
         <v>235</v>
       </c>
@@ -5411,7 +5479,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="238" spans="1:4">
+    <row r="238" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A238" s="1">
         <v>236</v>
       </c>
@@ -5425,7 +5493,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="239" spans="1:4">
+    <row r="239" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A239" s="1">
         <v>237</v>
       </c>
@@ -5439,7 +5507,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="240" spans="1:4">
+    <row r="240" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A240" s="1">
         <v>238</v>
       </c>
@@ -5453,7 +5521,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="241" spans="1:4">
+    <row r="241" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A241" s="1">
         <v>239</v>
       </c>
@@ -5467,7 +5535,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="242" spans="1:4">
+    <row r="242" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A242" s="1">
         <v>240</v>
       </c>
@@ -5481,7 +5549,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="243" spans="1:4">
+    <row r="243" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A243" s="1">
         <v>241</v>
       </c>
@@ -5495,7 +5563,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="244" spans="1:4">
+    <row r="244" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A244" s="1">
         <v>242</v>
       </c>
@@ -5509,7 +5577,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="245" spans="1:4">
+    <row r="245" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A245" s="1">
         <v>243</v>
       </c>
@@ -5523,7 +5591,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="246" spans="1:4">
+    <row r="246" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A246" s="1">
         <v>244</v>
       </c>
@@ -5537,7 +5605,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="247" spans="1:4">
+    <row r="247" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A247" s="1">
         <v>245</v>
       </c>
@@ -5551,7 +5619,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="248" spans="1:4">
+    <row r="248" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A248" s="1">
         <v>246</v>
       </c>
@@ -5565,7 +5633,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="249" spans="1:4">
+    <row r="249" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A249" s="1">
         <v>247</v>
       </c>
@@ -5579,7 +5647,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="250" spans="1:4">
+    <row r="250" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A250" s="1">
         <v>248</v>
       </c>
@@ -5593,7 +5661,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="251" spans="1:4">
+    <row r="251" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A251" s="1">
         <v>249</v>
       </c>
@@ -5607,7 +5675,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="252" spans="1:4">
+    <row r="252" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A252" s="1">
         <v>250</v>
       </c>
@@ -5621,7 +5689,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="253" spans="1:4">
+    <row r="253" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A253" s="1">
         <v>251</v>
       </c>
@@ -5635,7 +5703,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="254" spans="1:4">
+    <row r="254" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A254" s="1">
         <v>252</v>
       </c>
@@ -5649,7 +5717,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="255" spans="1:4">
+    <row r="255" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A255" s="1">
         <v>253</v>
       </c>
@@ -5663,7 +5731,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="256" spans="1:4">
+    <row r="256" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A256" s="1">
         <v>254</v>
       </c>
@@ -5677,7 +5745,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="257" spans="1:4">
+    <row r="257" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A257" s="1">
         <v>255</v>
       </c>
@@ -5691,7 +5759,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="258" spans="1:4">
+    <row r="258" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A258" s="1">
         <v>256</v>
       </c>
@@ -5705,7 +5773,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="259" spans="1:4">
+    <row r="259" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A259" s="1">
         <v>257</v>
       </c>
@@ -5719,7 +5787,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="260" spans="1:4">
+    <row r="260" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A260" s="1">
         <v>258</v>
       </c>
@@ -5733,7 +5801,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="261" spans="1:4">
+    <row r="261" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A261" s="1">
         <v>259</v>
       </c>
@@ -5747,7 +5815,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="262" spans="1:4">
+    <row r="262" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A262" s="1">
         <v>260</v>
       </c>
@@ -5761,7 +5829,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="263" spans="1:4">
+    <row r="263" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A263" s="1">
         <v>261</v>
       </c>
@@ -5775,7 +5843,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="264" spans="1:4">
+    <row r="264" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A264" s="1">
         <v>262</v>
       </c>
@@ -5789,7 +5857,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="265" spans="1:4">
+    <row r="265" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A265" s="1">
         <v>263</v>
       </c>
@@ -5803,7 +5871,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="266" spans="1:4">
+    <row r="266" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A266" s="1">
         <v>264</v>
       </c>
@@ -5817,7 +5885,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="267" spans="1:4">
+    <row r="267" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A267" s="1">
         <v>265</v>
       </c>
@@ -5831,7 +5899,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="268" spans="1:4">
+    <row r="268" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A268" s="1">
         <v>266</v>
       </c>
@@ -5845,7 +5913,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="269" spans="1:4">
+    <row r="269" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A269" s="1">
         <v>267</v>
       </c>
@@ -5859,7 +5927,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="270" spans="1:4">
+    <row r="270" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A270" s="1">
         <v>268</v>
       </c>
@@ -5873,7 +5941,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="271" spans="1:4">
+    <row r="271" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A271" s="1">
         <v>269</v>
       </c>
@@ -5887,7 +5955,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="272" spans="1:4">
+    <row r="272" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A272" s="1">
         <v>270</v>
       </c>
@@ -5901,7 +5969,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="273" spans="1:4">
+    <row r="273" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A273" s="1">
         <v>271</v>
       </c>
@@ -5915,7 +5983,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="274" spans="1:4">
+    <row r="274" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A274" s="1">
         <v>272</v>
       </c>
@@ -5929,7 +5997,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="275" spans="1:4">
+    <row r="275" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A275" s="1">
         <v>273</v>
       </c>
@@ -5943,7 +6011,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="276" spans="1:4">
+    <row r="276" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A276" s="1">
         <v>274</v>
       </c>
@@ -5957,7 +6025,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="277" spans="1:4">
+    <row r="277" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A277" s="1">
         <v>275</v>
       </c>
@@ -5971,7 +6039,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="278" spans="1:4">
+    <row r="278" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A278" s="1">
         <v>276</v>
       </c>
@@ -5985,7 +6053,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="279" spans="1:4">
+    <row r="279" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A279" s="1">
         <v>277</v>
       </c>
@@ -5999,7 +6067,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="280" spans="1:4">
+    <row r="280" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A280" s="1">
         <v>278</v>
       </c>
@@ -6013,7 +6081,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="281" spans="1:4">
+    <row r="281" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A281" s="1">
         <v>279</v>
       </c>
@@ -6027,7 +6095,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="282" spans="1:4">
+    <row r="282" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A282" s="1">
         <v>280</v>
       </c>
@@ -6041,7 +6109,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="283" spans="1:4">
+    <row r="283" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A283" s="1">
         <v>281</v>
       </c>
@@ -6055,7 +6123,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="284" spans="1:4">
+    <row r="284" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A284" s="1">
         <v>282</v>
       </c>
@@ -6069,7 +6137,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="285" spans="1:4">
+    <row r="285" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A285" s="1">
         <v>283</v>
       </c>
@@ -6083,7 +6151,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="286" spans="1:4">
+    <row r="286" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A286" s="1">
         <v>284</v>
       </c>
@@ -6097,7 +6165,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="287" spans="1:4">
+    <row r="287" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A287" s="1">
         <v>285</v>
       </c>
@@ -6111,7 +6179,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="288" spans="1:4">
+    <row r="288" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A288" s="1">
         <v>286</v>
       </c>
@@ -6125,7 +6193,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="289" spans="1:4">
+    <row r="289" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A289" s="1">
         <v>287</v>
       </c>
@@ -6139,7 +6207,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="290" spans="1:4">
+    <row r="290" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A290" s="1">
         <v>288</v>
       </c>
@@ -6153,7 +6221,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="291" spans="1:4">
+    <row r="291" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A291" s="1">
         <v>289</v>
       </c>
@@ -6167,7 +6235,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="292" spans="1:4">
+    <row r="292" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A292" s="1">
         <v>290</v>
       </c>
@@ -6181,7 +6249,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="293" spans="1:4">
+    <row r="293" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A293" s="1">
         <v>291</v>
       </c>
@@ -6195,7 +6263,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="294" spans="1:4">
+    <row r="294" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A294" s="1">
         <v>292</v>
       </c>
@@ -6209,7 +6277,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="295" spans="1:4">
+    <row r="295" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A295" s="1">
         <v>293</v>
       </c>
@@ -6223,7 +6291,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="296" spans="1:4">
+    <row r="296" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A296" s="1">
         <v>294</v>
       </c>
@@ -6237,7 +6305,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="297" spans="1:4">
+    <row r="297" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A297" s="1">
         <v>295</v>
       </c>
@@ -6251,7 +6319,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="298" spans="1:4">
+    <row r="298" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A298" s="1">
         <v>296</v>
       </c>
@@ -6265,7 +6333,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="299" spans="1:4">
+    <row r="299" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A299" s="1">
         <v>297</v>
       </c>
@@ -6279,7 +6347,7 @@
         <v>302</v>
       </c>
     </row>
-    <row r="300" spans="1:4">
+    <row r="300" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A300" s="1">
         <v>298</v>
       </c>
@@ -6293,7 +6361,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="301" spans="1:4">
+    <row r="301" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A301" s="1">
         <v>299</v>
       </c>
@@ -6307,7 +6375,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="302" spans="1:4">
+    <row r="302" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A302" s="1">
         <v>300</v>
       </c>
@@ -6321,7 +6389,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="303" spans="1:4">
+    <row r="303" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A303" s="1">
         <v>301</v>
       </c>
@@ -6335,7 +6403,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="304" spans="1:4">
+    <row r="304" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A304" s="1">
         <v>302</v>
       </c>
@@ -6349,7 +6417,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="305" spans="1:4">
+    <row r="305" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A305" s="1">
         <v>303</v>
       </c>
@@ -6363,7 +6431,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="306" spans="1:4">
+    <row r="306" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A306" s="1">
         <v>304</v>
       </c>
@@ -6377,7 +6445,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="307" spans="1:4">
+    <row r="307" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A307" s="1">
         <v>305</v>
       </c>
@@ -6391,7 +6459,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="308" spans="1:4">
+    <row r="308" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A308" s="1">
         <v>306</v>
       </c>
@@ -6405,7 +6473,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="309" spans="1:4">
+    <row r="309" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A309" s="1">
         <v>307</v>
       </c>
@@ -6419,7 +6487,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="310" spans="1:4">
+    <row r="310" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A310" s="1">
         <v>308</v>
       </c>
@@ -6433,7 +6501,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="311" spans="1:4">
+    <row r="311" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A311" s="1">
         <v>309</v>
       </c>
@@ -6447,7 +6515,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="312" spans="1:4">
+    <row r="312" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A312" s="1">
         <v>310</v>
       </c>
@@ -6461,7 +6529,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="313" spans="1:4">
+    <row r="313" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A313" s="1">
         <v>311</v>
       </c>
@@ -6475,7 +6543,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="314" spans="1:4">
+    <row r="314" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A314" s="1">
         <v>312</v>
       </c>
@@ -6489,7 +6557,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="315" spans="1:4">
+    <row r="315" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A315" s="1">
         <v>313</v>
       </c>
@@ -6503,7 +6571,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="316" spans="1:4">
+    <row r="316" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A316" s="1">
         <v>314</v>
       </c>
@@ -6517,7 +6585,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="317" spans="1:4">
+    <row r="317" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A317" s="1">
         <v>315</v>
       </c>
@@ -6531,7 +6599,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="318" spans="1:4">
+    <row r="318" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A318" s="1">
         <v>316</v>
       </c>
@@ -6545,7 +6613,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="319" spans="1:4">
+    <row r="319" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A319" s="1">
         <v>317</v>
       </c>
@@ -6559,7 +6627,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="320" spans="1:4">
+    <row r="320" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A320" s="1">
         <v>318</v>
       </c>
@@ -6573,7 +6641,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="321" spans="1:4">
+    <row r="321" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A321" s="1">
         <v>319</v>
       </c>
@@ -6587,7 +6655,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="322" spans="1:4">
+    <row r="322" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A322" s="1">
         <v>320</v>
       </c>
@@ -6601,7 +6669,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="323" spans="1:4">
+    <row r="323" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A323" s="1">
         <v>321</v>
       </c>
@@ -6615,7 +6683,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="324" spans="1:4">
+    <row r="324" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A324" s="1">
         <v>322</v>
       </c>
@@ -6629,7 +6697,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="325" spans="1:4">
+    <row r="325" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A325" s="1">
         <v>323</v>
       </c>
@@ -6643,7 +6711,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="326" spans="1:4">
+    <row r="326" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A326" s="1">
         <v>324</v>
       </c>
@@ -6657,7 +6725,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="327" spans="1:4">
+    <row r="327" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A327" s="1">
         <v>325</v>
       </c>
@@ -6671,7 +6739,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="328" spans="1:4">
+    <row r="328" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A328" s="1">
         <v>326</v>
       </c>
@@ -6685,7 +6753,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="329" spans="1:4">
+    <row r="329" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A329" s="1">
         <v>327</v>
       </c>
@@ -6699,7 +6767,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="330" spans="1:4">
+    <row r="330" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A330" s="1">
         <v>328</v>
       </c>
@@ -6713,7 +6781,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="331" spans="1:4">
+    <row r="331" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A331" s="1">
         <v>329</v>
       </c>
@@ -6727,7 +6795,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="332" spans="1:4">
+    <row r="332" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A332" s="1">
         <v>330</v>
       </c>
@@ -6741,7 +6809,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="333" spans="1:4">
+    <row r="333" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A333" s="1">
         <v>331</v>
       </c>
@@ -6755,7 +6823,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="334" spans="1:4">
+    <row r="334" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A334" s="1">
         <v>332</v>
       </c>
@@ -6769,7 +6837,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="335" spans="1:4">
+    <row r="335" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A335" s="1">
         <v>333</v>
       </c>
@@ -6783,7 +6851,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="336" spans="1:4">
+    <row r="336" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A336" s="1">
         <v>334</v>
       </c>
@@ -6797,7 +6865,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="337" spans="1:4">
+    <row r="337" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A337" s="1">
         <v>335</v>
       </c>
@@ -6811,7 +6879,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="338" spans="1:4">
+    <row r="338" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A338" s="1">
         <v>336</v>
       </c>
@@ -6825,7 +6893,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="339" spans="1:4">
+    <row r="339" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A339" s="1">
         <v>337</v>
       </c>
@@ -6839,7 +6907,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="340" spans="1:4">
+    <row r="340" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A340" s="1">
         <v>338</v>
       </c>
@@ -6853,7 +6921,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="341" spans="1:4">
+    <row r="341" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A341" s="1">
         <v>339</v>
       </c>
@@ -6867,7 +6935,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="342" spans="1:4">
+    <row r="342" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A342" s="1">
         <v>340</v>
       </c>
@@ -6881,7 +6949,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="343" spans="1:4">
+    <row r="343" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A343" s="1">
         <v>341</v>
       </c>
@@ -6895,7 +6963,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="344" spans="1:4">
+    <row r="344" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A344" s="1">
         <v>342</v>
       </c>
@@ -6909,7 +6977,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="345" spans="1:4">
+    <row r="345" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A345" s="1">
         <v>343</v>
       </c>
@@ -6923,7 +6991,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="346" spans="1:4">
+    <row r="346" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A346" s="1">
         <v>344</v>
       </c>
@@ -6937,7 +7005,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="347" spans="1:4">
+    <row r="347" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A347" s="1">
         <v>345</v>
       </c>
@@ -6951,7 +7019,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="348" spans="1:4">
+    <row r="348" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A348" s="1">
         <v>346</v>
       </c>
@@ -6965,7 +7033,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="349" spans="1:4">
+    <row r="349" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A349" s="1">
         <v>347</v>
       </c>
@@ -6979,7 +7047,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="350" spans="1:4">
+    <row r="350" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A350" s="1">
         <v>348</v>
       </c>
@@ -6993,7 +7061,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="351" spans="1:4">
+    <row r="351" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A351" s="1">
         <v>349</v>
       </c>
@@ -7007,7 +7075,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="352" spans="1:4">
+    <row r="352" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A352" s="1">
         <v>350</v>
       </c>
@@ -7021,7 +7089,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="353" spans="1:4">
+    <row r="353" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A353" s="1">
         <v>351</v>
       </c>
@@ -7035,7 +7103,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="354" spans="1:4">
+    <row r="354" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A354" s="1">
         <v>352</v>
       </c>
@@ -7049,7 +7117,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="355" spans="1:4">
+    <row r="355" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A355" s="1">
         <v>353</v>
       </c>
@@ -7063,7 +7131,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="356" spans="1:4">
+    <row r="356" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A356" s="1">
         <v>354</v>
       </c>
@@ -7077,7 +7145,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="357" spans="1:4">
+    <row r="357" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A357" s="1">
         <v>355</v>
       </c>
@@ -7091,7 +7159,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="358" spans="1:4">
+    <row r="358" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A358" s="1">
         <v>356</v>
       </c>
@@ -7105,7 +7173,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="359" spans="1:4">
+    <row r="359" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A359" s="1">
         <v>357</v>
       </c>
@@ -7119,7 +7187,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="360" spans="1:4">
+    <row r="360" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A360" s="1">
         <v>358</v>
       </c>
@@ -7133,7 +7201,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="361" spans="1:4">
+    <row r="361" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A361" s="1">
         <v>359</v>
       </c>
@@ -7147,7 +7215,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="362" spans="1:4">
+    <row r="362" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A362" s="1">
         <v>360</v>
       </c>
@@ -7161,7 +7229,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="363" spans="1:4">
+    <row r="363" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A363" s="1">
         <v>361</v>
       </c>
@@ -7175,7 +7243,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="364" spans="1:4">
+    <row r="364" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A364" s="1">
         <v>362</v>
       </c>
@@ -7189,7 +7257,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="365" spans="1:4">
+    <row r="365" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A365" s="1">
         <v>363</v>
       </c>
@@ -7203,7 +7271,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="366" spans="1:4">
+    <row r="366" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A366" s="1">
         <v>364</v>
       </c>
@@ -7217,7 +7285,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="367" spans="1:4">
+    <row r="367" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A367" s="1">
         <v>365</v>
       </c>
@@ -7231,7 +7299,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="368" spans="1:4">
+    <row r="368" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A368" s="1">
         <v>366</v>
       </c>
@@ -7245,7 +7313,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="369" spans="1:4">
+    <row r="369" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A369" s="1">
         <v>367</v>
       </c>
@@ -7259,7 +7327,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="370" spans="1:4">
+    <row r="370" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A370" s="1">
         <v>368</v>
       </c>
@@ -7273,7 +7341,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="371" spans="1:4">
+    <row r="371" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A371" s="1">
         <v>369</v>
       </c>
@@ -7287,7 +7355,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="372" spans="1:4">
+    <row r="372" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A372" s="1">
         <v>370</v>
       </c>
@@ -7301,7 +7369,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="373" spans="1:4">
+    <row r="373" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A373" s="1">
         <v>371</v>
       </c>
@@ -7315,7 +7383,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="374" spans="1:4">
+    <row r="374" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A374" s="1">
         <v>372</v>
       </c>
@@ -7329,7 +7397,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="375" spans="1:4">
+    <row r="375" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A375" s="1">
         <v>373</v>
       </c>
@@ -7343,7 +7411,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="376" spans="1:4">
+    <row r="376" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A376" s="1">
         <v>374</v>
       </c>
@@ -7357,7 +7425,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="377" spans="1:4">
+    <row r="377" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A377" s="1">
         <v>375</v>
       </c>
@@ -7371,7 +7439,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="378" spans="1:4">
+    <row r="378" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A378" s="1">
         <v>376</v>
       </c>
@@ -7385,7 +7453,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="379" spans="1:4">
+    <row r="379" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A379" s="1">
         <v>377</v>
       </c>
@@ -7399,7 +7467,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="380" spans="1:4">
+    <row r="380" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A380" s="1">
         <v>378</v>
       </c>
@@ -7413,7 +7481,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="381" spans="1:4">
+    <row r="381" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A381" s="1">
         <v>379</v>
       </c>
@@ -7427,7 +7495,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="382" spans="1:4">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A382" s="1">
         <v>380</v>
       </c>
@@ -7441,7 +7509,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="383" spans="1:4">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A383" s="1">
         <v>381</v>
       </c>
@@ -7455,7 +7523,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="384" spans="1:4">
+    <row r="384" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A384" s="1">
         <v>382</v>
       </c>
@@ -7469,7 +7537,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="385" spans="1:4">
+    <row r="385" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A385" s="1">
         <v>383</v>
       </c>
@@ -7483,7 +7551,7 @@
         <v>388</v>
       </c>
     </row>
-    <row r="386" spans="1:4">
+    <row r="386" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A386" s="1">
         <v>384</v>
       </c>
@@ -7497,7 +7565,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="387" spans="1:4">
+    <row r="387" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A387" s="1">
         <v>385</v>
       </c>
@@ -7511,7 +7579,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="388" spans="1:4">
+    <row r="388" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A388" s="1">
         <v>386</v>
       </c>
@@ -7525,7 +7593,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="389" spans="1:4">
+    <row r="389" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A389" s="1">
         <v>387</v>
       </c>
@@ -7539,7 +7607,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="390" spans="1:4">
+    <row r="390" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A390" s="1">
         <v>388</v>
       </c>
@@ -7553,7 +7621,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="391" spans="1:4">
+    <row r="391" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A391" s="1">
         <v>389</v>
       </c>
@@ -7567,7 +7635,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="392" spans="1:4">
+    <row r="392" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A392" s="1">
         <v>390</v>
       </c>
@@ -7581,7 +7649,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="393" spans="1:4">
+    <row r="393" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A393" s="1">
         <v>391</v>
       </c>
@@ -7595,7 +7663,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="394" spans="1:4">
+    <row r="394" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A394" s="1">
         <v>392</v>
       </c>
@@ -7609,7 +7677,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="395" spans="1:4">
+    <row r="395" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A395" s="1">
         <v>393</v>
       </c>
@@ -7623,7 +7691,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="396" spans="1:4">
+    <row r="396" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A396" s="1">
         <v>394</v>
       </c>
@@ -7637,7 +7705,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="397" spans="1:4">
+    <row r="397" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A397" s="1">
         <v>395</v>
       </c>
@@ -7651,7 +7719,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="398" spans="1:4">
+    <row r="398" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A398" s="1">
         <v>396</v>
       </c>
@@ -7665,7 +7733,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="399" spans="1:4">
+    <row r="399" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A399" s="1">
         <v>397</v>
       </c>
@@ -7679,7 +7747,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="400" spans="1:4">
+    <row r="400" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A400" s="1">
         <v>398</v>
       </c>
@@ -7693,7 +7761,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="401" spans="1:4">
+    <row r="401" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A401" s="1">
         <v>399</v>
       </c>
@@ -7707,7 +7775,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="402" spans="1:4">
+    <row r="402" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A402" s="1">
         <v>400</v>
       </c>
@@ -7721,7 +7789,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="403" spans="1:4">
+    <row r="403" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A403" s="1">
         <v>401</v>
       </c>
@@ -7735,7 +7803,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="404" spans="1:4">
+    <row r="404" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A404" s="1">
         <v>402</v>
       </c>
@@ -7749,7 +7817,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="405" spans="1:4">
+    <row r="405" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A405" s="1">
         <v>403</v>
       </c>
@@ -7763,7 +7831,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="406" spans="1:4">
+    <row r="406" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A406" s="1">
         <v>404</v>
       </c>
@@ -7777,7 +7845,7 @@
         <v>409</v>
       </c>
     </row>
-    <row r="407" spans="1:4">
+    <row r="407" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A407" s="1">
         <v>405</v>
       </c>
@@ -7791,7 +7859,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="408" spans="1:4">
+    <row r="408" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A408" s="1">
         <v>406</v>
       </c>
@@ -7805,7 +7873,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="409" spans="1:4">
+    <row r="409" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A409" s="1">
         <v>407</v>
       </c>
@@ -7819,7 +7887,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="410" spans="1:4">
+    <row r="410" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A410" s="1">
         <v>408</v>
       </c>
@@ -7833,7 +7901,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="411" spans="1:4">
+    <row r="411" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A411" s="1">
         <v>409</v>
       </c>
@@ -7847,7 +7915,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="412" spans="1:4">
+    <row r="412" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A412" s="1">
         <v>410</v>
       </c>
@@ -7861,7 +7929,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="413" spans="1:4">
+    <row r="413" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A413" s="1">
         <v>411</v>
       </c>
@@ -7875,7 +7943,7 @@
         <v>416</v>
       </c>
     </row>
-    <row r="414" spans="1:4">
+    <row r="414" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A414" s="1">
         <v>412</v>
       </c>
@@ -7889,7 +7957,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="415" spans="1:4">
+    <row r="415" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A415" s="1">
         <v>413</v>
       </c>
@@ -7903,7 +7971,7 @@
         <v>418</v>
       </c>
     </row>
-    <row r="416" spans="1:4">
+    <row r="416" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A416" s="1">
         <v>414</v>
       </c>
@@ -7917,7 +7985,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="417" spans="1:4">
+    <row r="417" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A417" s="1">
         <v>415</v>
       </c>
@@ -7931,7 +7999,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="418" spans="1:4">
+    <row r="418" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A418" s="1">
         <v>416</v>
       </c>
@@ -7945,7 +8013,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="419" spans="1:4">
+    <row r="419" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A419" s="1">
         <v>417</v>
       </c>
@@ -7959,7 +8027,7 @@
         <v>422</v>
       </c>
     </row>
-    <row r="420" spans="1:4">
+    <row r="420" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A420" s="1">
         <v>418</v>
       </c>
@@ -7973,7 +8041,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="421" spans="1:4">
+    <row r="421" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A421" s="1">
         <v>419</v>
       </c>
@@ -7987,7 +8055,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="422" spans="1:4">
+    <row r="422" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A422" s="1">
         <v>420</v>
       </c>
@@ -8001,7 +8069,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="423" spans="1:4">
+    <row r="423" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A423" s="1">
         <v>421</v>
       </c>
@@ -8015,7 +8083,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="424" spans="1:4">
+    <row r="424" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A424" s="1">
         <v>422</v>
       </c>
@@ -8029,7 +8097,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="425" spans="1:4">
+    <row r="425" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A425" s="1">
         <v>423</v>
       </c>
@@ -8043,7 +8111,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="426" spans="1:4">
+    <row r="426" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A426" s="1">
         <v>424</v>
       </c>
@@ -8057,7 +8125,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="427" spans="1:4">
+    <row r="427" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A427" s="1">
         <v>425</v>
       </c>
@@ -8071,7 +8139,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="428" spans="1:4">
+    <row r="428" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A428" s="1">
         <v>426</v>
       </c>
@@ -8085,7 +8153,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="429" spans="1:4">
+    <row r="429" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A429" s="1">
         <v>427</v>
       </c>
@@ -8099,7 +8167,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="430" spans="1:4">
+    <row r="430" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A430" s="1">
         <v>428</v>
       </c>
@@ -8113,7 +8181,7 @@
         <v>433</v>
       </c>
     </row>
-    <row r="431" spans="1:4">
+    <row r="431" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A431" s="1">
         <v>429</v>
       </c>
@@ -8127,7 +8195,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="432" spans="1:4">
+    <row r="432" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A432" s="1">
         <v>430</v>
       </c>
@@ -8141,7 +8209,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="433" spans="1:4">
+    <row r="433" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A433" s="1">
         <v>431</v>
       </c>
@@ -8155,7 +8223,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="434" spans="1:4">
+    <row r="434" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A434" s="1">
         <v>432</v>
       </c>
@@ -8169,7 +8237,7 @@
         <v>437</v>
       </c>
     </row>
-    <row r="435" spans="1:4">
+    <row r="435" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A435" s="1">
         <v>433</v>
       </c>
@@ -8183,7 +8251,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="436" spans="1:4">
+    <row r="436" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A436" s="1">
         <v>434</v>
       </c>
@@ -8197,7 +8265,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="437" spans="1:4">
+    <row r="437" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A437" s="1">
         <v>435</v>
       </c>
@@ -8211,7 +8279,7 @@
         <v>440</v>
       </c>
     </row>
-    <row r="438" spans="1:4">
+    <row r="438" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A438" s="1">
         <v>436</v>
       </c>
@@ -8225,7 +8293,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="439" spans="1:4">
+    <row r="439" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A439" s="1">
         <v>437</v>
       </c>
@@ -8239,7 +8307,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="440" spans="1:4">
+    <row r="440" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A440" s="1">
         <v>438</v>
       </c>
@@ -8253,7 +8321,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="441" spans="1:4">
+    <row r="441" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A441" s="1">
         <v>439</v>
       </c>
@@ -8267,7 +8335,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="442" spans="1:4">
+    <row r="442" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A442" s="1">
         <v>440</v>
       </c>
@@ -8281,7 +8349,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="443" spans="1:4">
+    <row r="443" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A443" s="1">
         <v>441</v>
       </c>
@@ -8295,7 +8363,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="444" spans="1:4">
+    <row r="444" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A444" s="1">
         <v>442</v>
       </c>
@@ -8309,7 +8377,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="445" spans="1:4">
+    <row r="445" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A445" s="1">
         <v>443</v>
       </c>
@@ -8323,7 +8391,7 @@
         <v>448</v>
       </c>
     </row>
-    <row r="446" spans="1:4">
+    <row r="446" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A446" s="1">
         <v>444</v>
       </c>
@@ -8337,7 +8405,7 @@
         <v>449</v>
       </c>
     </row>
-    <row r="447" spans="1:4">
+    <row r="447" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A447" s="1">
         <v>445</v>
       </c>
@@ -8351,7 +8419,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="448" spans="1:4">
+    <row r="448" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A448" s="1">
         <v>446</v>
       </c>
@@ -8365,7 +8433,7 @@
         <v>451</v>
       </c>
     </row>
-    <row r="449" spans="1:4">
+    <row r="449" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A449" s="1">
         <v>447</v>
       </c>
@@ -8379,7 +8447,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="450" spans="1:4">
+    <row r="450" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A450" s="1">
         <v>448</v>
       </c>
@@ -8393,7 +8461,7 @@
         <v>453</v>
       </c>
     </row>
-    <row r="451" spans="1:4">
+    <row r="451" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A451" s="1">
         <v>449</v>
       </c>
@@ -8407,7 +8475,7 @@
         <v>454</v>
       </c>
     </row>
-    <row r="452" spans="1:4">
+    <row r="452" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A452" s="1">
         <v>450</v>
       </c>
@@ -8421,7 +8489,7 @@
         <v>455</v>
       </c>
     </row>
-    <row r="453" spans="1:4">
+    <row r="453" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A453" s="1">
         <v>451</v>
       </c>
@@ -8435,7 +8503,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="454" spans="1:4">
+    <row r="454" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A454" s="1">
         <v>452</v>
       </c>
@@ -8449,7 +8517,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="455" spans="1:4">
+    <row r="455" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A455" s="1">
         <v>453</v>
       </c>
@@ -8463,7 +8531,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="456" spans="1:4">
+    <row r="456" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A456" s="1">
         <v>454</v>
       </c>
@@ -8477,7 +8545,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="457" spans="1:4">
+    <row r="457" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A457" s="1">
         <v>455</v>
       </c>
@@ -8491,7 +8559,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="458" spans="1:4">
+    <row r="458" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A458" s="1">
         <v>456</v>
       </c>
@@ -8505,7 +8573,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="459" spans="1:4">
+    <row r="459" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A459" s="1">
         <v>457</v>
       </c>
@@ -8519,7 +8587,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="460" spans="1:4">
+    <row r="460" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A460" s="1">
         <v>458</v>
       </c>
@@ -8533,7 +8601,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="461" spans="1:4">
+    <row r="461" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A461" s="1">
         <v>459</v>
       </c>
@@ -8547,7 +8615,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="462" spans="1:4">
+    <row r="462" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A462" s="1">
         <v>460</v>
       </c>
@@ -8561,7 +8629,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="463" spans="1:4">
+    <row r="463" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A463" s="1">
         <v>461</v>
       </c>
@@ -8575,7 +8643,7 @@
         <v>466</v>
       </c>
     </row>
-    <row r="464" spans="1:4">
+    <row r="464" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A464" s="1">
         <v>462</v>
       </c>
@@ -8589,7 +8657,7 @@
         <v>467</v>
       </c>
     </row>
-    <row r="465" spans="1:4">
+    <row r="465" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A465" s="1">
         <v>463</v>
       </c>
@@ -8603,7 +8671,7 @@
         <v>468</v>
       </c>
     </row>
-    <row r="466" spans="1:4">
+    <row r="466" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A466" s="1">
         <v>464</v>
       </c>
@@ -8617,7 +8685,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="467" spans="1:4">
+    <row r="467" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A467" s="1">
         <v>465</v>
       </c>
@@ -8631,7 +8699,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="468" spans="1:4">
+    <row r="468" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A468" s="1">
         <v>466</v>
       </c>
@@ -8645,7 +8713,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="469" spans="1:4">
+    <row r="469" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A469" s="1">
         <v>467</v>
       </c>
@@ -8659,7 +8727,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="470" spans="1:4">
+    <row r="470" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A470" s="1">
         <v>468</v>
       </c>
@@ -8673,7 +8741,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="471" spans="1:4">
+    <row r="471" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A471" s="1">
         <v>469</v>
       </c>
@@ -8687,7 +8755,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="472" spans="1:4">
+    <row r="472" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A472" s="1">
         <v>470</v>
       </c>
@@ -8701,7 +8769,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="473" spans="1:4">
+    <row r="473" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A473" s="1">
         <v>471</v>
       </c>
@@ -8715,7 +8783,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="474" spans="1:4">
+    <row r="474" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A474" s="1">
         <v>472</v>
       </c>
@@ -8729,7 +8797,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="475" spans="1:4">
+    <row r="475" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A475" s="1">
         <v>473</v>
       </c>
@@ -8743,7 +8811,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="476" spans="1:4">
+    <row r="476" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A476" s="1">
         <v>474</v>
       </c>
@@ -8757,7 +8825,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="477" spans="1:4">
+    <row r="477" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A477" s="1">
         <v>475</v>
       </c>
@@ -8771,7 +8839,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="478" spans="1:4">
+    <row r="478" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A478" s="1">
         <v>476</v>
       </c>
@@ -8785,7 +8853,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="479" spans="1:4">
+    <row r="479" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A479" s="1">
         <v>477</v>
       </c>
@@ -8799,7 +8867,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="480" spans="1:4">
+    <row r="480" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A480" s="1">
         <v>478</v>
       </c>
@@ -8813,7 +8881,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="481" spans="1:4">
+    <row r="481" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A481" s="1">
         <v>479</v>
       </c>
@@ -8827,7 +8895,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="482" spans="1:4">
+    <row r="482" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A482" s="1">
         <v>480</v>
       </c>
@@ -8841,7 +8909,7 @@
         <v>485</v>
       </c>
     </row>
-    <row r="483" spans="1:4">
+    <row r="483" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A483" s="1">
         <v>481</v>
       </c>
@@ -8855,7 +8923,7 @@
         <v>486</v>
       </c>
     </row>
-    <row r="484" spans="1:4">
+    <row r="484" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A484" s="1">
         <v>482</v>
       </c>
@@ -8869,7 +8937,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="485" spans="1:4">
+    <row r="485" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A485" s="1">
         <v>483</v>
       </c>
@@ -8883,7 +8951,7 @@
         <v>488</v>
       </c>
     </row>
-    <row r="486" spans="1:4">
+    <row r="486" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A486" s="1">
         <v>484</v>
       </c>
@@ -8897,7 +8965,7 @@
         <v>489</v>
       </c>
     </row>
-    <row r="487" spans="1:4">
+    <row r="487" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A487" s="1">
         <v>485</v>
       </c>
@@ -8911,7 +8979,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="488" spans="1:4">
+    <row r="488" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A488" s="1">
         <v>486</v>
       </c>
@@ -8925,7 +8993,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="489" spans="1:4">
+    <row r="489" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A489" s="1">
         <v>487</v>
       </c>
@@ -8939,7 +9007,7 @@
         <v>492</v>
       </c>
     </row>
-    <row r="490" spans="1:4">
+    <row r="490" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A490" s="1">
         <v>488</v>
       </c>
@@ -8953,7 +9021,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="491" spans="1:4">
+    <row r="491" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A491" s="1">
         <v>489</v>
       </c>
@@ -8967,7 +9035,7 @@
         <v>494</v>
       </c>
     </row>
-    <row r="492" spans="1:4">
+    <row r="492" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A492" s="1">
         <v>490</v>
       </c>
@@ -8981,7 +9049,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="493" spans="1:4">
+    <row r="493" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A493" s="1">
         <v>491</v>
       </c>
@@ -8995,7 +9063,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="494" spans="1:4">
+    <row r="494" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A494" s="1">
         <v>492</v>
       </c>
@@ -9009,7 +9077,7 @@
         <v>497</v>
       </c>
     </row>
-    <row r="495" spans="1:4">
+    <row r="495" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A495" s="1">
         <v>493</v>
       </c>
@@ -9023,7 +9091,7 @@
         <v>498</v>
       </c>
     </row>
-    <row r="496" spans="1:4">
+    <row r="496" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A496" s="1">
         <v>494</v>
       </c>
@@ -9037,7 +9105,7 @@
         <v>499</v>
       </c>
     </row>
-    <row r="497" spans="1:4">
+    <row r="497" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A497" s="1">
         <v>495</v>
       </c>
@@ -9051,7 +9119,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="498" spans="1:4">
+    <row r="498" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A498" s="1">
         <v>496</v>
       </c>
@@ -9065,7 +9133,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="499" spans="1:4">
+    <row r="499" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A499" s="1">
         <v>497</v>
       </c>
@@ -9079,7 +9147,7 @@
         <v>502</v>
       </c>
     </row>
-    <row r="500" spans="1:4">
+    <row r="500" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A500" s="1">
         <v>498</v>
       </c>
@@ -9093,7 +9161,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="501" spans="1:4">
+    <row r="501" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A501" s="1">
         <v>499</v>
       </c>
@@ -9107,7 +9175,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="502" spans="1:4">
+    <row r="502" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A502" s="1">
         <v>500</v>
       </c>
@@ -9121,7 +9189,7 @@
         <v>505</v>
       </c>
     </row>
-    <row r="503" spans="1:4">
+    <row r="503" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A503" s="1">
         <v>501</v>
       </c>
@@ -9135,7 +9203,7 @@
         <v>506</v>
       </c>
     </row>
-    <row r="504" spans="1:4">
+    <row r="504" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A504" s="1">
         <v>502</v>
       </c>
@@ -9149,7 +9217,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="505" spans="1:4">
+    <row r="505" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A505" s="1">
         <v>503</v>
       </c>
@@ -9163,7 +9231,7 @@
         <v>508</v>
       </c>
     </row>
-    <row r="506" spans="1:4">
+    <row r="506" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A506" s="1">
         <v>504</v>
       </c>
@@ -9177,7 +9245,7 @@
         <v>509</v>
       </c>
     </row>
-    <row r="507" spans="1:4">
+    <row r="507" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A507" s="1">
         <v>505</v>
       </c>
@@ -9191,7 +9259,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="508" spans="1:4">
+    <row r="508" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A508" s="1">
         <v>506</v>
       </c>
@@ -9205,7 +9273,7 @@
         <v>511</v>
       </c>
     </row>
-    <row r="509" spans="1:4">
+    <row r="509" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A509" s="1">
         <v>507</v>
       </c>
@@ -9219,7 +9287,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="510" spans="1:4">
+    <row r="510" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A510" s="1">
         <v>508</v>
       </c>
@@ -9233,7 +9301,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="511" spans="1:4">
+    <row r="511" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A511" s="1">
         <v>509</v>
       </c>
@@ -9247,7 +9315,7 @@
         <v>514</v>
       </c>
     </row>
-    <row r="512" spans="1:4">
+    <row r="512" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A512" s="1">
         <v>510</v>
       </c>
@@ -9261,7 +9329,7 @@
         <v>515</v>
       </c>
     </row>
-    <row r="513" spans="1:4">
+    <row r="513" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A513" s="1">
         <v>511</v>
       </c>
@@ -9275,7 +9343,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="514" spans="1:4">
+    <row r="514" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A514" s="1">
         <v>512</v>
       </c>
@@ -9289,7 +9357,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="515" spans="1:4">
+    <row r="515" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A515" s="1">
         <v>513</v>
       </c>
@@ -9303,7 +9371,7 @@
         <v>518</v>
       </c>
     </row>
-    <row r="516" spans="1:4">
+    <row r="516" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A516" s="1">
         <v>514</v>
       </c>
@@ -9317,7 +9385,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="517" spans="1:4">
+    <row r="517" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A517" s="1">
         <v>515</v>
       </c>
@@ -9331,7 +9399,7 @@
         <v>520</v>
       </c>
     </row>
-    <row r="518" spans="1:4">
+    <row r="518" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A518" s="1">
         <v>516</v>
       </c>
@@ -9345,7 +9413,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="519" spans="1:4">
+    <row r="519" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A519" s="1">
         <v>517</v>
       </c>
@@ -9359,7 +9427,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="520" spans="1:4">
+    <row r="520" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A520" s="1">
         <v>518</v>
       </c>
@@ -9373,7 +9441,7 @@
         <v>523</v>
       </c>
     </row>
-    <row r="521" spans="1:4">
+    <row r="521" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A521" s="1">
         <v>519</v>
       </c>
@@ -9387,7 +9455,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="522" spans="1:4">
+    <row r="522" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A522" s="1">
         <v>520</v>
       </c>
@@ -9401,7 +9469,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="523" spans="1:4">
+    <row r="523" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A523" s="1">
         <v>521</v>
       </c>
@@ -9415,7 +9483,7 @@
         <v>526</v>
       </c>
     </row>
-    <row r="524" spans="1:4">
+    <row r="524" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A524" s="1">
         <v>522</v>
       </c>
@@ -9429,7 +9497,7 @@
         <v>527</v>
       </c>
     </row>
-    <row r="525" spans="1:4">
+    <row r="525" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A525" s="1">
         <v>523</v>
       </c>
@@ -9443,7 +9511,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="526" spans="1:4">
+    <row r="526" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A526" s="1">
         <v>524</v>
       </c>
@@ -9457,7 +9525,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="527" spans="1:4">
+    <row r="527" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A527" s="1">
         <v>525</v>
       </c>
@@ -9471,7 +9539,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="528" spans="1:4">
+    <row r="528" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A528" s="1">
         <v>526</v>
       </c>
@@ -9485,7 +9553,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="529" spans="1:4">
+    <row r="529" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A529" s="1">
         <v>527</v>
       </c>
@@ -9499,7 +9567,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="530" spans="1:4">
+    <row r="530" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A530" s="1">
         <v>528</v>
       </c>
@@ -9513,7 +9581,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="531" spans="1:4">
+    <row r="531" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A531" s="1">
         <v>529</v>
       </c>
@@ -9527,7 +9595,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="532" spans="1:4">
+    <row r="532" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A532" s="1">
         <v>530</v>
       </c>
@@ -9541,7 +9609,7 @@
         <v>535</v>
       </c>
     </row>
-    <row r="533" spans="1:4">
+    <row r="533" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A533" s="1">
         <v>531</v>
       </c>
@@ -9555,7 +9623,7 @@
         <v>536</v>
       </c>
     </row>
-    <row r="534" spans="1:4">
+    <row r="534" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A534" s="1">
         <v>532</v>
       </c>
@@ -9569,7 +9637,7 @@
         <v>537</v>
       </c>
     </row>
-    <row r="535" spans="1:4">
+    <row r="535" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A535" s="1">
         <v>533</v>
       </c>
@@ -9583,7 +9651,7 @@
         <v>538</v>
       </c>
     </row>
-    <row r="536" spans="1:4">
+    <row r="536" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A536" s="1">
         <v>534</v>
       </c>
@@ -9597,7 +9665,7 @@
         <v>539</v>
       </c>
     </row>
-    <row r="537" spans="1:4">
+    <row r="537" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A537" s="1">
         <v>535</v>
       </c>
@@ -9611,7 +9679,7 @@
         <v>540</v>
       </c>
     </row>
-    <row r="538" spans="1:4">
+    <row r="538" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A538" s="1">
         <v>536</v>
       </c>
@@ -9625,7 +9693,7 @@
         <v>541</v>
       </c>
     </row>
-    <row r="539" spans="1:4">
+    <row r="539" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A539" s="1">
         <v>537</v>
       </c>
@@ -9639,7 +9707,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="540" spans="1:4">
+    <row r="540" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A540" s="1">
         <v>538</v>
       </c>
@@ -9653,7 +9721,7 @@
         <v>543</v>
       </c>
     </row>
-    <row r="541" spans="1:4">
+    <row r="541" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A541" s="1">
         <v>539</v>
       </c>
@@ -9667,7 +9735,7 @@
         <v>544</v>
       </c>
     </row>
-    <row r="542" spans="1:4">
+    <row r="542" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A542" s="1">
         <v>540</v>
       </c>
@@ -9681,7 +9749,7 @@
         <v>545</v>
       </c>
     </row>
-    <row r="543" spans="1:4">
+    <row r="543" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A543" s="1">
         <v>541</v>
       </c>
@@ -9695,7 +9763,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="544" spans="1:4">
+    <row r="544" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A544" s="1">
         <v>542</v>
       </c>
@@ -9709,7 +9777,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="545" spans="1:4">
+    <row r="545" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A545" s="1">
         <v>543</v>
       </c>
@@ -9723,7 +9791,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="546" spans="1:4">
+    <row r="546" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A546" s="1">
         <v>544</v>
       </c>
@@ -9737,7 +9805,7 @@
         <v>549</v>
       </c>
     </row>
-    <row r="547" spans="1:4">
+    <row r="547" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A547" s="1">
         <v>545</v>
       </c>
@@ -9751,7 +9819,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="548" spans="1:4">
+    <row r="548" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A548" s="1">
         <v>546</v>
       </c>
@@ -9765,7 +9833,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="549" spans="1:4">
+    <row r="549" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A549" s="1">
         <v>547</v>
       </c>
@@ -9779,7 +9847,7 @@
         <v>552</v>
       </c>
     </row>
-    <row r="550" spans="1:4">
+    <row r="550" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A550" s="1">
         <v>548</v>
       </c>
@@ -9793,7 +9861,7 @@
         <v>553</v>
       </c>
     </row>
-    <row r="551" spans="1:4">
+    <row r="551" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A551" s="1">
         <v>549</v>
       </c>
@@ -9807,7 +9875,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="552" spans="1:4">
+    <row r="552" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A552" s="1">
         <v>550</v>
       </c>
@@ -9821,7 +9889,7 @@
         <v>555</v>
       </c>
     </row>
-    <row r="553" spans="1:4">
+    <row r="553" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A553" s="1">
         <v>551</v>
       </c>
@@ -9835,7 +9903,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="554" spans="1:4">
+    <row r="554" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A554" s="1">
         <v>552</v>
       </c>
@@ -9849,7 +9917,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="555" spans="1:4">
+    <row r="555" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A555" s="1">
         <v>553</v>
       </c>
@@ -9863,7 +9931,7 @@
         <v>558</v>
       </c>
     </row>
-    <row r="556" spans="1:4">
+    <row r="556" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A556" s="1">
         <v>554</v>
       </c>
@@ -9877,7 +9945,7 @@
         <v>559</v>
       </c>
     </row>
-    <row r="557" spans="1:4">
+    <row r="557" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A557" s="1">
         <v>555</v>
       </c>
@@ -9891,7 +9959,7 @@
         <v>560</v>
       </c>
     </row>
-    <row r="558" spans="1:4">
+    <row r="558" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A558" s="1">
         <v>556</v>
       </c>
@@ -9905,7 +9973,7 @@
         <v>561</v>
       </c>
     </row>
-    <row r="559" spans="1:4">
+    <row r="559" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A559" s="1">
         <v>557</v>
       </c>
@@ -9919,7 +9987,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="560" spans="1:4">
+    <row r="560" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A560" s="1">
         <v>558</v>
       </c>
@@ -9933,7 +10001,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="561" spans="1:4">
+    <row r="561" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A561" s="1">
         <v>559</v>
       </c>
@@ -9947,7 +10015,7 @@
         <v>564</v>
       </c>
     </row>
-    <row r="562" spans="1:4">
+    <row r="562" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A562" s="1">
         <v>560</v>
       </c>
@@ -9961,7 +10029,7 @@
         <v>565</v>
       </c>
     </row>
-    <row r="563" spans="1:4">
+    <row r="563" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A563" s="1">
         <v>561</v>
       </c>
@@ -9975,7 +10043,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="564" spans="1:4">
+    <row r="564" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A564" s="1">
         <v>562</v>
       </c>
@@ -9989,7 +10057,7 @@
         <v>567</v>
       </c>
     </row>
-    <row r="565" spans="1:4">
+    <row r="565" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A565" s="1">
         <v>563</v>
       </c>
@@ -10003,7 +10071,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="566" spans="1:4">
+    <row r="566" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A566" s="1">
         <v>564</v>
       </c>
@@ -10017,7 +10085,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="567" spans="1:4">
+    <row r="567" spans="1:4" x14ac:dyDescent="0.55000000000000004">
       <c r="A567" s="1">
         <v>565</v>
       </c>
@@ -10032,6 +10100,9 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D567" xr:uid="{414ED2F1-D014-40CB-A602-ABC6449E1BCE}"/>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>